--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>153.074322579268</v>
+        <v>174.7894516666667</v>
       </c>
       <c r="H2">
-        <v>153.074322579268</v>
+        <v>524.368355</v>
       </c>
       <c r="I2">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928495</v>
       </c>
       <c r="J2">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928494</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.57772146876226</v>
+        <v>5.243417666666667</v>
       </c>
       <c r="N2">
-        <v>4.57772146876226</v>
+        <v>15.730253</v>
       </c>
       <c r="O2">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974575</v>
       </c>
       <c r="P2">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974574</v>
       </c>
       <c r="Q2">
-        <v>700.7316127873546</v>
+        <v>916.4940988159793</v>
       </c>
       <c r="R2">
-        <v>700.7316127873546</v>
+        <v>8248.446889343813</v>
       </c>
       <c r="S2">
-        <v>0.03613090772067214</v>
+        <v>0.03642573096302876</v>
       </c>
       <c r="T2">
-        <v>0.03613090772067214</v>
+        <v>0.03642573096302874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>153.074322579268</v>
+        <v>174.7894516666667</v>
       </c>
       <c r="H3">
-        <v>153.074322579268</v>
+        <v>524.368355</v>
       </c>
       <c r="I3">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928495</v>
       </c>
       <c r="J3">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928494</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.353722320541402</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N3">
-        <v>0.353722320541402</v>
+        <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.07172794330711593</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="P3">
-        <v>0.07172794330711593</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="Q3">
-        <v>54.14580459804181</v>
+        <v>118.7342414645644</v>
       </c>
       <c r="R3">
-        <v>54.14580459804181</v>
+        <v>1068.60817318108</v>
       </c>
       <c r="S3">
-        <v>0.002791849309625863</v>
+        <v>0.004719050064015655</v>
       </c>
       <c r="T3">
-        <v>0.002791849309625863</v>
+        <v>0.004719050064015654</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3719.1719254945</v>
+        <v>174.7894516666667</v>
       </c>
       <c r="H4">
-        <v>3719.1719254945</v>
+        <v>524.368355</v>
       </c>
       <c r="I4">
-        <v>0.9456871849618361</v>
+        <v>0.04413101306928495</v>
       </c>
       <c r="J4">
-        <v>0.9456871849618361</v>
+        <v>0.04413101306928494</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.57772146876226</v>
+        <v>0.4298626666666667</v>
       </c>
       <c r="N4">
-        <v>4.57772146876226</v>
+        <v>1.289588</v>
       </c>
       <c r="O4">
-        <v>0.9282720566928842</v>
+        <v>0.06766742557104236</v>
       </c>
       <c r="P4">
-        <v>0.9282720566928842</v>
+        <v>0.06766742557104236</v>
       </c>
       <c r="Q4">
-        <v>17025.33316935405</v>
+        <v>75.13545979863778</v>
       </c>
       <c r="R4">
-        <v>17025.33316935405</v>
+        <v>676.21913818774</v>
       </c>
       <c r="S4">
-        <v>0.8778549881726275</v>
+        <v>0.002986232042240537</v>
       </c>
       <c r="T4">
-        <v>0.8778549881726275</v>
+        <v>0.002986232042240536</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,309 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3719.1719254945</v>
+        <v>3721.989909</v>
       </c>
       <c r="H5">
-        <v>3719.1719254945</v>
+        <v>11165.969727</v>
       </c>
       <c r="I5">
-        <v>0.9456871849618361</v>
+        <v>0.9397316814693693</v>
       </c>
       <c r="J5">
-        <v>0.9456871849618361</v>
+        <v>0.9397316814693691</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.353722320541402</v>
+        <v>5.243417666666667</v>
       </c>
       <c r="N5">
-        <v>0.353722320541402</v>
+        <v>15.730253</v>
       </c>
       <c r="O5">
-        <v>0.07172794330711593</v>
+        <v>0.8253998362974575</v>
       </c>
       <c r="P5">
-        <v>0.07172794330711593</v>
+        <v>0.8253998362974574</v>
       </c>
       <c r="Q5">
-        <v>1315.554123978349</v>
+        <v>19515.94764400566</v>
       </c>
       <c r="R5">
-        <v>1315.554123978349</v>
+        <v>175643.5287960509</v>
       </c>
       <c r="S5">
-        <v>0.06783219678920864</v>
+        <v>0.7756543760483519</v>
       </c>
       <c r="T5">
-        <v>0.06783219678920864</v>
+        <v>0.7756543760483516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8358179266180989</v>
+        <v>3721.989909</v>
       </c>
       <c r="H6">
-        <v>0.8358179266180989</v>
+        <v>11165.969727</v>
       </c>
       <c r="I6">
-        <v>0.0002125264220096559</v>
+        <v>0.9397316814693693</v>
       </c>
       <c r="J6">
-        <v>0.0002125264220096559</v>
+        <v>0.9397316814693691</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>4.57772146876226</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N6">
-        <v>4.57772146876226</v>
+        <v>2.037896</v>
       </c>
       <c r="O6">
-        <v>0.9282720566928842</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="P6">
-        <v>0.9282720566928842</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="Q6">
-        <v>3.826141666656031</v>
+        <v>2528.342782530488</v>
       </c>
       <c r="R6">
-        <v>3.826141666656031</v>
+        <v>22755.08504277439</v>
       </c>
       <c r="S6">
-        <v>0.0001972823388604831</v>
+        <v>0.1004880818084383</v>
       </c>
       <c r="T6">
-        <v>0.0001972823388604831</v>
+        <v>0.1004880818084383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8358179266180989</v>
+        <v>3721.989909</v>
       </c>
       <c r="H7">
-        <v>0.8358179266180989</v>
+        <v>11165.969727</v>
       </c>
       <c r="I7">
-        <v>0.0002125264220096559</v>
+        <v>0.9397316814693693</v>
       </c>
       <c r="J7">
-        <v>0.0002125264220096559</v>
+        <v>0.9397316814693691</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.353722320541402</v>
+        <v>0.4298626666666667</v>
       </c>
       <c r="N7">
-        <v>0.353722320541402</v>
+        <v>1.289588</v>
       </c>
       <c r="O7">
-        <v>0.07172794330711593</v>
+        <v>0.06766742557104236</v>
       </c>
       <c r="P7">
-        <v>0.07172794330711593</v>
+        <v>0.06766742557104236</v>
       </c>
       <c r="Q7">
-        <v>0.2956474565534572</v>
+        <v>1599.944507589164</v>
       </c>
       <c r="R7">
-        <v>0.2956474565534572</v>
+        <v>14399.50056830248</v>
       </c>
       <c r="S7">
-        <v>1.524408314917279E-05</v>
+        <v>0.06358922361257903</v>
       </c>
       <c r="T7">
-        <v>1.524408314917279E-05</v>
+        <v>0.06358922361257902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>59.689768741765</v>
+        <v>0.837161</v>
       </c>
       <c r="H8">
-        <v>59.689768741765</v>
+        <v>2.511483</v>
       </c>
       <c r="I8">
-        <v>0.01517753158585629</v>
+        <v>0.0002113672345774699</v>
       </c>
       <c r="J8">
-        <v>0.01517753158585629</v>
+        <v>0.0002113672345774698</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.57772146876226</v>
+        <v>5.243417666666667</v>
       </c>
       <c r="N8">
-        <v>4.57772146876226</v>
+        <v>15.730253</v>
       </c>
       <c r="O8">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974575</v>
       </c>
       <c r="P8">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974574</v>
       </c>
       <c r="Q8">
-        <v>273.2431358346321</v>
+        <v>4.389584777244334</v>
       </c>
       <c r="R8">
-        <v>273.2431358346321</v>
+        <v>39.506262995199</v>
       </c>
       <c r="S8">
-        <v>0.01408887846072403</v>
+        <v>0.0001744624808188899</v>
       </c>
       <c r="T8">
-        <v>0.01408887846072403</v>
+        <v>0.0001744624808188899</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.837161</v>
+      </c>
+      <c r="H9">
+        <v>2.511483</v>
+      </c>
+      <c r="I9">
+        <v>0.0002113672345774699</v>
+      </c>
+      <c r="J9">
+        <v>0.0002113672345774698</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.037896</v>
+      </c>
+      <c r="O9">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="P9">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="Q9">
+        <v>0.5686823510853333</v>
+      </c>
+      <c r="R9">
+        <v>5.118141159768</v>
+      </c>
+      <c r="S9">
+        <v>2.260207714465193E-05</v>
+      </c>
+      <c r="T9">
+        <v>2.260207714465192E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.837161</v>
+      </c>
+      <c r="H10">
+        <v>2.511483</v>
+      </c>
+      <c r="I10">
+        <v>0.0002113672345774699</v>
+      </c>
+      <c r="J10">
+        <v>0.0002113672345774698</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4298626666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.289588</v>
+      </c>
+      <c r="O10">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="P10">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="Q10">
+        <v>0.3598642598893334</v>
+      </c>
+      <c r="R10">
+        <v>3.238778339004001</v>
+      </c>
+      <c r="S10">
+        <v>1.430267661392799E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.430267661392799E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.334605</v>
+      </c>
+      <c r="H11">
+        <v>4.003814999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="J11">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.243417666666667</v>
+      </c>
+      <c r="N11">
+        <v>15.730253</v>
+      </c>
+      <c r="O11">
+        <v>0.8253998362974575</v>
+      </c>
+      <c r="P11">
+        <v>0.8253998362974574</v>
+      </c>
+      <c r="Q11">
+        <v>6.997891435021666</v>
+      </c>
+      <c r="R11">
+        <v>62.98102291519499</v>
+      </c>
+      <c r="S11">
+        <v>0.0002781286983188354</v>
+      </c>
+      <c r="T11">
+        <v>0.0002781286983188353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.334605</v>
+      </c>
+      <c r="H12">
+        <v>4.003814999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="J12">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N12">
+        <v>2.037896</v>
+      </c>
+      <c r="O12">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="P12">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="Q12">
+        <v>0.9065953970266665</v>
+      </c>
+      <c r="R12">
+        <v>8.159358573239999</v>
+      </c>
+      <c r="S12">
+        <v>3.603231059215394E-05</v>
+      </c>
+      <c r="T12">
+        <v>3.603231059215393E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.334605</v>
+      </c>
+      <c r="H13">
+        <v>4.003814999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="J13">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4298626666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.289588</v>
+      </c>
+      <c r="O13">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="P13">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="Q13">
+        <v>0.5736968642466667</v>
+      </c>
+      <c r="R13">
+        <v>5.16327177822</v>
+      </c>
+      <c r="S13">
+        <v>2.280137718112927E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.280137718112927E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>59.689768741765</v>
-      </c>
-      <c r="H9">
-        <v>59.689768741765</v>
-      </c>
-      <c r="I9">
-        <v>0.01517753158585629</v>
-      </c>
-      <c r="J9">
-        <v>0.01517753158585629</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.353722320541402</v>
-      </c>
-      <c r="N9">
-        <v>0.353722320541402</v>
-      </c>
-      <c r="O9">
-        <v>0.07172794330711593</v>
-      </c>
-      <c r="P9">
-        <v>0.07172794330711593</v>
-      </c>
-      <c r="Q9">
-        <v>21.11360351191676</v>
-      </c>
-      <c r="R9">
-        <v>21.11360351191676</v>
-      </c>
-      <c r="S9">
-        <v>0.001088653125132262</v>
-      </c>
-      <c r="T9">
-        <v>0.001088653125132262</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>61.74316766666667</v>
+      </c>
+      <c r="H14">
+        <v>185.229503</v>
+      </c>
+      <c r="I14">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="J14">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.243417666666667</v>
+      </c>
+      <c r="N14">
+        <v>15.730253</v>
+      </c>
+      <c r="O14">
+        <v>0.8253998362974575</v>
+      </c>
+      <c r="P14">
+        <v>0.8253998362974574</v>
+      </c>
+      <c r="Q14">
+        <v>323.7452161393621</v>
+      </c>
+      <c r="R14">
+        <v>2913.706945254259</v>
+      </c>
+      <c r="S14">
+        <v>0.01286713810693921</v>
+      </c>
+      <c r="T14">
+        <v>0.01286713810693921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>61.74316766666667</v>
+      </c>
+      <c r="H15">
+        <v>185.229503</v>
+      </c>
+      <c r="I15">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="J15">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.037896</v>
+      </c>
+      <c r="O15">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="P15">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="Q15">
+        <v>41.94205147174311</v>
+      </c>
+      <c r="R15">
+        <v>377.478463245688</v>
+      </c>
+      <c r="S15">
+        <v>0.001666971871309317</v>
+      </c>
+      <c r="T15">
+        <v>0.001666971871309316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>61.74316766666667</v>
+      </c>
+      <c r="H16">
+        <v>185.229503</v>
+      </c>
+      <c r="I16">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="J16">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4298626666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.289588</v>
+      </c>
+      <c r="O16">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="P16">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="Q16">
+        <v>26.54108270164045</v>
+      </c>
+      <c r="R16">
+        <v>238.8697443147641</v>
+      </c>
+      <c r="S16">
+        <v>0.001054865862427739</v>
+      </c>
+      <c r="T16">
+        <v>0.001054865862427739</v>
       </c>
     </row>
   </sheetData>
